--- a/dados/salas.xlsx
+++ b/dados/salas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D3CC9A-6165-1142-850E-00FBFDA70D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D008159-51F1-D044-B059-481C9ADB9242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{971FA054-DA74-8340-9296-5D4E7CAE2536}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CODSALA</t>
   </si>
@@ -48,84 +48,6 @@
   </si>
   <si>
     <t>SALA 201</t>
-  </si>
-  <si>
-    <t>SALA 202</t>
-  </si>
-  <si>
-    <t>SALA 203</t>
-  </si>
-  <si>
-    <t>SALA 204</t>
-  </si>
-  <si>
-    <t>SALA 205</t>
-  </si>
-  <si>
-    <t>SALA 207</t>
-  </si>
-  <si>
-    <t>SALA 212</t>
-  </si>
-  <si>
-    <t>SALA 214</t>
-  </si>
-  <si>
-    <t>SALA 301</t>
-  </si>
-  <si>
-    <t>SALA 302</t>
-  </si>
-  <si>
-    <t>SALA 304</t>
-  </si>
-  <si>
-    <t>SALA 305</t>
-  </si>
-  <si>
-    <t>SALA 307</t>
-  </si>
-  <si>
-    <t>SALA 309</t>
-  </si>
-  <si>
-    <t>SALA 311</t>
-  </si>
-  <si>
-    <t>SALA 313</t>
-  </si>
-  <si>
-    <t>SALA 315</t>
-  </si>
-  <si>
-    <t>SALA 401</t>
-  </si>
-  <si>
-    <t>SALA 403</t>
-  </si>
-  <si>
-    <t>SALA 405</t>
-  </si>
-  <si>
-    <t>SALA 407</t>
-  </si>
-  <si>
-    <t>SALA 409</t>
-  </si>
-  <si>
-    <t>SALA 410</t>
-  </si>
-  <si>
-    <t>SALA 411</t>
-  </si>
-  <si>
-    <t>SALA 412</t>
-  </si>
-  <si>
-    <t>SALA 414</t>
-  </si>
-  <si>
-    <t>SALA 415</t>
   </si>
 </sst>
 </file>
@@ -181,8 +103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6082658-2456-C24A-9686-845F89263191}" name="Tabela5" displayName="Tabela5" ref="A1:C28" totalsRowShown="0">
-  <autoFilter ref="A1:C28" xr:uid="{A6082658-2456-C24A-9686-845F89263191}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6082658-2456-C24A-9686-845F89263191}" name="Tabela5" displayName="Tabela5" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{A6082658-2456-C24A-9686-845F89263191}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE45BE17-40D6-194A-A9DC-9C0EE50E4CD8}" name="CODSALA"/>
     <tableColumn id="2" xr3:uid="{CD8CE8B5-8E5C-9242-881C-5ADEFBFE9522}" name="NOME"/>
@@ -509,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1248E5-79EE-3440-B62F-987A6F118C6D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,292 +458,6 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>205</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>302</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>304</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>305</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>307</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>309</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>311</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>313</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>315</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>401</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>403</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>405</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>407</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>409</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>410</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>411</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>412</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>414</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>415</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
         <v>60</v>
       </c>
     </row>
